--- a/data/cost/PP_Sup_cost_lab.xlsx
+++ b/data/cost/PP_Sup_cost_lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E27478-4D09-EB4E-A9C5-19B5F7BA2B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3F1B3C-0709-3E4A-A50B-55D80441CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1040" windowWidth="23780" windowHeight="17980" activeTab="2" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
+    <workbookView xWindow="15880" yWindow="3020" windowWidth="17020" windowHeight="17980" activeTab="3" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="shredding" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,20 @@
     <sheet name="granulate" sheetId="3" r:id="rId3"/>
     <sheet name="conditioning" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -462,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CECAF4-10EE-7547-8F9A-E08E88E519F7}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="F1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H3">
         <v>8.3000000000000004E-2</v>
@@ -645,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14329C3B-818D-974A-839B-1CDF92A21CC9}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="F1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H3">
         <v>0.66</v>
@@ -828,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F903924-2D1B-F649-8D6E-329FE2160CED}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -959,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H3">
         <v>8.3000000000000004E-2</v>
@@ -1011,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C261B8B2-5703-4A47-9A2B-A87AD92FEE9B}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
